--- a/cluster/data test/dist-change-homer-ampar-LTD-3.xlsx
+++ b/cluster/data test/dist-change-homer-ampar-LTD-3.xlsx
@@ -370,1108 +370,1519 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8031A3CC-0E89-499D-8C95-D4C726FBFA01}">
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B137"/>
+      <selection sqref="A1:C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>176.61608703032672</v>
       </c>
       <c r="B1">
         <v>171.48665669003432</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>170.20062143750849</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>142.45513421375892</v>
       </c>
       <c r="B2">
         <v>135.27918858360411</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>193.15982930403092</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>64.219998939536751</v>
       </c>
       <c r="B3">
         <v>223.44987067081016</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>71.22750130438196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>215.29205994126625</v>
       </c>
       <c r="B4">
         <v>191.82951233171838</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>109.42250582464011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>76.520159553852267</v>
       </c>
       <c r="B5">
         <v>60.772365524559071</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>81.283290696876236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>164.77472446799732</v>
       </c>
       <c r="B6">
         <v>127.61350622182617</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>144.52607074639278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>109.9260578517631</v>
       </c>
       <c r="B7">
         <v>75.470487290642396</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>172.69354238086248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>53.648640426214534</v>
       </c>
       <c r="B8">
         <v>42.591961391963245</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>175.43043045983165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>192.50697939970684</v>
       </c>
       <c r="B9">
         <v>140.19892526087651</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>149.45594013293635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>190.7404923160982</v>
       </c>
       <c r="B10">
         <v>126.11538303071794</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>145.39057135426049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>141.17661485443116</v>
       </c>
       <c r="B11">
         <v>133.4773786974452</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>136.23293334906049</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>69.062868838689241</v>
       </c>
       <c r="B12">
         <v>45.161616777369538</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>144.20215522573884</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>697.02282632020524</v>
       </c>
       <c r="B13">
         <v>761.42769411626614</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>97.307482749373222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>75.198333534572413</v>
       </c>
       <c r="B14">
         <v>89.25793902313508</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>102.26667636421845</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>108.02833116373465</v>
       </c>
       <c r="B15">
         <v>98.308380704149144</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>129.1593634537092</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>157.56593818422036</v>
       </c>
       <c r="B16">
         <v>291.07607519040431</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>162.87859880293047</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>238.09293658549282</v>
       </c>
       <c r="B17">
         <v>110.16598095854056</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>101.63309036880409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>118.82514500197107</v>
       </c>
       <c r="B18">
         <v>74.978833747484828</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>132.99288897141898</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>215.68615098928385</v>
       </c>
       <c r="B19">
         <v>240.53776478905229</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>152.49460367784189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>96.644055761231854</v>
       </c>
       <c r="B20">
         <v>54.300481647149049</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>139.91721302356925</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>205.03780559679802</v>
       </c>
       <c r="B21">
         <v>188.00671094619852</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>149.03354027203525</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>93.730241470626495</v>
       </c>
       <c r="B22">
         <v>121.56852680901973</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>78.217034629337277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>112.67785284678411</v>
       </c>
       <c r="B23">
         <v>42.726545031922896</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>136.43726186265431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>580.59678422619106</v>
       </c>
       <c r="B24">
         <v>345.78611699215463</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>87.685798928972048</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>161.28421801553083</v>
       </c>
       <c r="B25">
         <v>76.056290346757933</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>133.13693368844625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>153.38751499969823</v>
       </c>
       <c r="B26">
         <v>165.52526233682079</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>137.26634712077782</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>164.30353616276884</v>
       </c>
       <c r="B27">
         <v>135.90296274160451</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>147.97633280377502</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>292.00046104724692</v>
       </c>
       <c r="B28">
         <v>631.26630936144579</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>195.85285749144384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>224.21340393303291</v>
       </c>
       <c r="B29">
         <v>94.948858131168549</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>15.212633496272883</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1148.3888503594167</v>
       </c>
       <c r="B30">
         <v>1898.1009192184833</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>113.10862004841763</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>140.27345638667009</v>
       </c>
       <c r="B31">
         <v>89.565747753365699</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>199.49284773284396</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>236.93410966610315</v>
       </c>
       <c r="B32">
         <v>87.130701730901166</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>139.4098987391055</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>166.79192299184905</v>
       </c>
       <c r="B33">
         <v>315.87775773015335</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>211.89505041067792</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>180.96363923178262</v>
       </c>
       <c r="B34">
         <v>58.490076111922214</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>105.43280432493874</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>133.41634526493979</v>
       </c>
       <c r="B35">
         <v>184.08547534246145</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>183.18852779082547</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>129.77732628758042</v>
       </c>
       <c r="B36">
         <v>118.61927646521458</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>151.26210515184468</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>71.572198258043883</v>
       </c>
       <c r="B37">
         <v>66.313479025398351</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>94.975619711553577</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>170.8361799888871</v>
       </c>
       <c r="B38">
         <v>308.75078245108818</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>182.91239555997527</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>59.837540872739602</v>
       </c>
       <c r="B39">
         <v>79.447547842876347</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>168.7416198705497</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>34.267302495434578</v>
       </c>
       <c r="B40">
         <v>57.008008793154048</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>112.61277673477677</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>971.10839404209025</v>
       </c>
       <c r="B41">
         <v>158.53667782773442</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>78.832621210054498</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>64.219998939536751</v>
       </c>
       <c r="B42">
         <v>164.58603457222921</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>928.36162209929284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>73.859650793222329</v>
       </c>
       <c r="B43">
         <v>591.31446275272276</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>57.263234651062227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1171.9146784986931</v>
       </c>
       <c r="B44">
         <v>555.11007931574557</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>1495.0301446242156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>143.50362078358512</v>
       </c>
       <c r="B45">
         <v>122.03584756051819</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>152.29221291487795</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>117.07471097816087</v>
       </c>
       <c r="B46">
         <v>128.93969774986635</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>93.510496722343746</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>119.76190804065659</v>
       </c>
       <c r="B47">
         <v>94.160030240496226</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>157.76969146166718</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>128.46444911659148</v>
       </c>
       <c r="B48">
         <v>86.345320929991303</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>145.61563673301919</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>113.49479115285739</v>
       </c>
       <c r="B49">
         <v>61.573030569148493</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>167.73536408861582</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>332.38273234565514</v>
       </c>
       <c r="B50">
         <v>144.70398263123894</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>223.90954325362506</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>122.42488950343071</v>
       </c>
       <c r="B51">
         <v>140.29352215987589</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>137.88494702645079</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>99.594381738602024</v>
       </c>
       <c r="B52">
         <v>87.533449009981979</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>188.11835828265831</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>100.51432842183286</v>
       </c>
       <c r="B53">
         <v>84.613773189492292</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>121.37989911383984</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>115.20467896193513</v>
       </c>
       <c r="B54">
         <v>164.71588985492784</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>104.08825211664917</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>191.78170473305835</v>
       </c>
       <c r="B55">
         <v>113.04824440967187</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>133.95840343967629</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>150.67806046616835</v>
       </c>
       <c r="B56">
         <v>41.052364054570099</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>158.87639455894791</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>196.07030019968684</v>
       </c>
       <c r="B57">
         <v>123.12814656818468</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>140.41496596584483</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>170.36021884910554</v>
       </c>
       <c r="B58">
         <v>1122.3706052593395</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>188.41966666327735</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>240.60740999846414</v>
       </c>
       <c r="B59">
         <v>229.7532006822627</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>187.44696015900686</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>129.34330134325901</v>
       </c>
       <c r="B60">
         <v>85.058776996888085</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>141.61709944272599</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>310.19379855835928</v>
       </c>
       <c r="B61">
         <v>205.57022370554836</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>179.44409793467875</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>235.75043686918295</v>
       </c>
       <c r="B62">
         <v>152.5971311130422</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>100.71895188652687</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>110.75737270080458</v>
       </c>
       <c r="B63">
         <v>71.75261360995529</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>59.505228683662224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2216.8712402384276</v>
       </c>
       <c r="B64">
         <v>1380.8098059517156</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>172.96968007866892</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1443.3948776565255</v>
       </c>
       <c r="B65">
         <v>160.23119030905178</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>129.369255788571</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>70.519760656556002</v>
       </c>
       <c r="B66">
         <v>149.42918566332551</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>155.53169087405354</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>161.9405753827418</v>
       </c>
       <c r="B67">
         <v>1045.6511163159955</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>782.55126300280403</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>492.29007632629663</v>
       </c>
       <c r="B68">
         <v>1380.092786946803</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>1404.7175280638612</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>338.96838435015803</v>
       </c>
       <c r="B69">
         <v>212.59166255728974</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>117.48595541295644</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>249.70132275492398</v>
       </c>
       <c r="B70">
         <v>273.49048280333795</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>258.57031391658967</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>149.8779644215453</v>
       </c>
       <c r="B71">
         <v>148.91341119350284</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>224.69501427759377</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>118.00527106399531</v>
       </c>
       <c r="B72">
         <v>122.45962194482881</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>89.665551352273582</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>97.907362215289965</v>
       </c>
       <c r="B73">
         <v>154.94013067530801</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>200.36865955279902</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>170.48020468119418</v>
       </c>
       <c r="B74">
         <v>169.83322735162525</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>72.942087709105408</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>629.6670825336754</v>
       </c>
       <c r="B75">
         <v>513.78175191185221</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>209.75536618532274</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>150.11648331290095</v>
       </c>
       <c r="B76">
         <v>71.741657594809936</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>160.76235737343723</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>226.21588397809629</v>
       </c>
       <c r="B77">
         <v>148.59360565404282</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>35.313620697532521</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>210.41680518486672</v>
       </c>
       <c r="B78">
         <v>119.24364801057757</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>111.87662093332921</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>297.3310012401364</v>
       </c>
       <c r="B79">
         <v>85.772087022832991</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>187.16315890482224</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>157.09171740692639</v>
       </c>
       <c r="B80">
         <v>125.8828458430845</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>158.65966473584186</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>48.04854248458485</v>
       </c>
       <c r="B81">
         <v>54.466703256837185</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>248.11082203137843</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>168.65588696882375</v>
       </c>
       <c r="B82">
         <v>49.580648609648918</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>62.45631165787777</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>156.01216816045684</v>
       </c>
       <c r="B83">
         <v>70.909927568785832</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>258.10480416270349</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>64.35799947586186</v>
       </c>
       <c r="B84">
         <v>702.10607349868587</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>752.88108451993821</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>115.49034711621857</v>
       </c>
       <c r="B85">
         <v>1257.5092799775005</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>54.490174300483616</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>121.71530972109535</v>
       </c>
       <c r="B86">
         <v>110.90651780389244</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>93.021437661458833</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>140.65916568048752</v>
       </c>
       <c r="B87">
         <v>165.31791807631012</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>151.55229688490502</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>326.90438853636402</v>
       </c>
       <c r="B88">
         <v>178.45970794227981</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>155.59600376960816</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>79.238877266381849</v>
       </c>
       <c r="B89">
         <v>706.74622090523951</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>1611.141743381017</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>732.16694367444506</v>
       </c>
       <c r="B90">
         <v>768.09802070717888</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>71.584049992092702</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1153.7173373336734</v>
       </c>
       <c r="B91">
         <v>1055.8805307016794</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>144.51333294273914</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1454.9068524662177</v>
       </c>
       <c r="B92">
         <v>1379.5472292455881</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>79.13923284929885</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>9227.6633146351269</v>
       </c>
       <c r="B93">
         <v>11212.173654917513</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>6955.3553034093156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>203.09513675694626</v>
       </c>
       <c r="B94">
         <v>266.11287420640622</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>249.2463821852898</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>170.98687122810512</v>
       </c>
       <c r="B95">
         <v>77.876828400554444</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>77.737406316224266</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>184.64440439840402</v>
       </c>
       <c r="B96">
         <v>218.30359176112333</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>138.5722084130245</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1491.8106585385667</v>
       </c>
       <c r="B97">
         <v>303.58298506360359</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>228.6283361846107</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>89.743850803088819</v>
       </c>
       <c r="B98">
         <v>83.518363725086573</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>90.838710996399598</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>357.66154038638757</v>
       </c>
       <c r="B99">
         <v>270.82793648262043</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>279.33274580403247</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>282.47885254195893</v>
       </c>
       <c r="B100">
         <v>450.45584452343809</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>492.96461811373609</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>527.71299188016121</v>
       </c>
       <c r="B101">
         <v>447.52368091106518</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>199.26772478716288</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1290.4141345386365</v>
       </c>
       <c r="B102">
         <v>1453.2895496725184</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>162.4697640951243</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>163.36367786620372</v>
       </c>
       <c r="B103">
         <v>82.037051735266445</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>271.35909367443872</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>110.98372300547094</v>
       </c>
       <c r="B104">
         <v>165.73703945848283</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>152.28621200840578</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>192.90884460765662</v>
       </c>
       <c r="B105">
         <v>82.370595695132693</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>210.54207989367561</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1382.0628897996032</v>
       </c>
       <c r="B106">
         <v>1537.3267251197035</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>132.86229042859313</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2892.5078932965721</v>
       </c>
       <c r="B107">
         <v>3046.0566713880321</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>57.920912405213485</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>226.21588397809629</v>
       </c>
       <c r="B108">
         <v>1255.925874697899</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>1309.9244881410887</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>140.6232289693605</v>
       </c>
       <c r="B109">
         <v>223.17411860515114</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>162.05314782302636</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>150.67806046616835</v>
       </c>
       <c r="B110">
         <v>126.30281739413857</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>2007.2610875488299</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>214.06528200580129</v>
       </c>
       <c r="B111">
         <v>260.89082654825023</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>222.81440955586791</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>76.520159553852267</v>
       </c>
       <c r="B112">
         <v>1349.5240580477623</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>1389.1185644232487</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>140.6232289693605</v>
       </c>
       <c r="B113">
         <v>343.69686834230663</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>1773.2545476904863</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>104.22447124408792</v>
       </c>
       <c r="B114">
         <v>159.63384757743503</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>135.52135511911032</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>310.19379855835928</v>
       </c>
       <c r="B115">
         <v>1640.7863193746596</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>1550.5954070004304</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>382.40627652569651</v>
       </c>
       <c r="B116">
         <v>146.58809280074831</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>143.1537641001475</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>152.94618289479743</v>
       </c>
       <c r="B117">
         <v>2496.3836918014372</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>129.84309039044851</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>79.238877266381849</v>
       </c>
       <c r="B118">
         <v>80.599805532163401</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>68.048764071362328</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>245.14070055094854</v>
       </c>
       <c r="B119">
         <v>147.29899951900407</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>143.74915815454926</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>144.11466679104538</v>
       </c>
       <c r="B120">
         <v>131.30919898848202</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>90.573578145448252</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>150.67806046616835</v>
       </c>
       <c r="B121">
         <v>215.94964548040753</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>4870.8849264705132</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>492.29007632629663</v>
       </c>
       <c r="B122">
         <v>95.339345064633306</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>125.90059125572206</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>47.288140548234892</v>
       </c>
       <c r="B123">
         <v>81.545882454138194</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>93.893188304871032</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>344.56997303074633</v>
       </c>
       <c r="B124">
         <v>496.13498897260735</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>287.0803159730836</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>146.21058496135947</v>
       </c>
       <c r="B125">
         <v>198.18250841941884</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>188.70094671030839</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>3440.0695716094356</v>
       </c>
       <c r="B126">
         <v>151.8605131084052</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>1108.3774275910901</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>339.83534861582962</v>
       </c>
       <c r="B127">
         <v>191.82152848358385</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>229.72084318457385</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>590.54971612171983</v>
       </c>
       <c r="B128">
         <v>867.31704135041139</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>275.90592588708444</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>886.3557088677004</v>
       </c>
       <c r="B129">
         <v>819.16601170290483</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>92.086279387425293</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>976.22920835146624</v>
       </c>
       <c r="B130">
         <v>388.23966973689761</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>52.0594885578519</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>246.60804018340431</v>
       </c>
       <c r="B131">
         <v>390.68798444099014</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <v>145.64347196056914</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>170.61018776347001</v>
       </c>
       <c r="B132">
         <v>285.24798349985889</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <v>96.113972565436029</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>78.65577619362098</v>
       </c>
       <c r="B133">
         <v>55.589379800117293</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>164.02713797990219</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1153.7173373336734</v>
       </c>
       <c r="B134">
         <v>913.88637840066406</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>1771.6191018428085</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>141.60598227156956</v>
       </c>
       <c r="B135">
         <v>1454.3770657444531</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>210.5143711867787</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>187.87539680011665</v>
       </c>
       <c r="B136">
         <v>305.1781898430412</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>99.565976800479163</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>125.80256423921628</v>
       </c>
       <c r="B137">
         <v>85.442170909809533</v>
+      </c>
+      <c r="C137">
+        <v>146.93898662619225</v>
       </c>
     </row>
   </sheetData>
